--- a/biology/Microbiologie/Clevelandellida/Clevelandellida.xlsx
+++ b/biology/Microbiologie/Clevelandellida/Clevelandellida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Clevelandellida sont un ordre de Ciliés du sous-embranchement des Intramacronucleata, et de la classe des Spirotrichea[1] ou des Armophorea[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Clevelandellida sont un ordre de Ciliés du sous-embranchement des Intramacronucleata, et de la classe des Spirotrichea ou des Armophorea.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon le World Register of Marine Species                               (30 janvier 2023)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon le World Register of Marine Species                               (30 janvier 2023) :
 Nyctotheridae Amaro, 1972
-Selon The Taxonomicon  (30 janvier 2023)[2] :
+Selon The Taxonomicon  (30 janvier 2023) :
 Nathellidae Singh, 1953
 Clevelandellidae Kidder, 1938
 Inferostomatidae Ky, 1971
@@ -549,9 +563,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Clevelandellida de Puytorac &amp; Grain, 1976[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Clevelandellida de Puytorac &amp; Grain, 1976.
 </t>
         </is>
       </c>
